--- a/ExcelTemplates/Manual Punch Import.xlsx
+++ b/ExcelTemplates/Manual Punch Import.xlsx
@@ -1,71 +1,65 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\internship041\source\repos\New updated\ExcelTemplates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D6BB09-718F-4B36-A687-7A70C27E7253}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28908"/>
+  <workbookPr/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3F23327-A765-4CB5-A37E-8D3098491EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" xr2:uid="{53FBB7B1-B653-4878-AE1B-3AC8F9702CCD}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>StaffId</t>
   </si>
   <si>
+    <t>ApplicationType</t>
+  </si>
+  <si>
+    <t>SelectPunch</t>
+  </si>
+  <si>
+    <t>InPunch</t>
+  </si>
+  <si>
+    <t>OutPunch</t>
+  </si>
+  <si>
     <t>Remarks</t>
-  </si>
-  <si>
-    <t>ApplicationTypeName</t>
-  </si>
-  <si>
-    <t>IN</t>
-  </si>
-  <si>
-    <t>2025-02-25 05:31:32.337</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Manual Punch Requisition</t>
-  </si>
-  <si>
-    <t>SelectPunch</t>
-  </si>
-  <si>
-    <t>InPunch</t>
-  </si>
-  <si>
-    <t>OutPunch</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -90,14 +84,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -120,39 +115,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="145F82"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E87331"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="186C24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -204,7 +199,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -315,13 +310,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -330,6 +318,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -394,7 +389,27 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
@@ -405,59 +420,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{030671F0-1664-4D75-8E3D-D2FF3DA9C467}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
+    <row r="2" spans="1:13">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="M2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
